--- a/output/missing-values-Age.xlsx
+++ b/output/missing-values-Age.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">pid</t>
   </si>
@@ -20,7 +20,37 @@
     <t xml:space="preserve">Age</t>
   </si>
   <si>
-    <t xml:space="preserve">TSH1919</t>
+    <t xml:space="preserve">TSH0269</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0933</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH0942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSH1339</t>
   </si>
 </sst>
 </file>
@@ -366,6 +396,66 @@
       </c>
       <c r="B2"/>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
